--- a/models/scan-v19/vrd:activities/-v19-all_preds-nored-test-repeater-gnews-only_sem-0.0001-0.0001-10-10-(-1+11)-vrd:activities-mlab-r5.xlsx
+++ b/models/scan-v19/vrd:activities/-v19-all_preds-nored-test-repeater-gnews-only_sem-0.0001-0.0001-10-10-(-1+11)-vrd:activities-mlab-r5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="head-Avg" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="predicates_stacked-Avg" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="predicates_stacked-Dev" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="predicates_stacked-2ndlast-Avg" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="predicates_stacked-2ndlast-Dev" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="predicates_stacked-2ndlast-Avg (v21-double-check)" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="predicates_stacked-2ndlast-Dev" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="37">
   <si>
     <t xml:space="preserve">Epoch</t>
   </si>
@@ -368,7 +369,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
@@ -480,11 +481,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
@@ -600,7 +601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
@@ -1851,7 +1852,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
@@ -3098,11 +3099,11 @@
   </sheetPr>
   <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA31" activeCellId="0" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
@@ -6098,13 +6099,3090 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AC31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X31" activeCellId="0" sqref="X31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">B3*G3/100</f>
+        <v>1055.7888</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">C3*H3/100</f>
+        <v>3.8</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <f aca="false">D3*I3/100</f>
+        <v>1053.9936</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <f aca="false">E3*J3/100</f>
+        <v>3.2</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <f aca="false">O3*G3/100</f>
+        <v>1056</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <f aca="false">P3*H3/100</f>
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <f aca="false">Q3*I3/100</f>
+        <v>1056</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <f aca="false">R3*J3/100</f>
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <f aca="false">T3-K3</f>
+        <v>0.211199999999963</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <f aca="false">U3-L3</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <f aca="false">V3-M3</f>
+        <v>2.00639999999998</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <f aca="false">W3-N3</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <f aca="false">AVERAGE(X3:AA3)</f>
+        <v>0.804399999999987</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>93.39</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">B4*G4/100</f>
+        <v>118.6053</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">C4*H4/100</f>
+        <v>8.0003</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <f aca="false">D4*I4/100</f>
+        <v>108.8009</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">E4*J4/100</f>
+        <v>3.8005</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>99.21</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>95.59</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>98.18</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <f aca="false">O4*G4/100</f>
+        <v>125.9967</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <f aca="false">P4*H4/100</f>
+        <v>11</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <f aca="false">Q4*I4/100</f>
+        <v>121.3993</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <f aca="false">R4*J4/100</f>
+        <v>10.7998</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <f aca="false">T4-K4</f>
+        <v>7.3914</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <f aca="false">U4-L4</f>
+        <v>2.9997</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <f aca="false">V4-M4</f>
+        <v>12.5984</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <f aca="false">W4-N4</f>
+        <v>6.9993</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <f aca="false">AVERAGE(X4:AA4)</f>
+        <v>7.4972</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>97.83</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>91.74</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">B5*G5/100</f>
+        <v>45.0018</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">C5*H5/100</f>
+        <v>2.0001</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <f aca="false">D5*I5/100</f>
+        <v>42.2004</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">E5*J5/100</f>
+        <v>1.4001</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>99.13</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>94.78</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <f aca="false">O5*G5/100</f>
+        <v>45.5998</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <f aca="false">P5*H5/100</f>
+        <v>2.6001</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <f aca="false">Q5*I5/100</f>
+        <v>43.5988</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <f aca="false">R5*J5/100</f>
+        <v>0.9999</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <f aca="false">T5-K5</f>
+        <v>0.597999999999992</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <f aca="false">U5-L5</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <f aca="false">V5-M5</f>
+        <v>1.3984</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <f aca="false">W5-N5</f>
+        <v>-0.4002</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <f aca="false">AVERAGE(X5:AA5)</f>
+        <v>0.549049999999999</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>88.82</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>96.32</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">B6*G6/100</f>
+        <v>32.7998</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">C6*H6/100</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">D6*I6/100</f>
+        <v>30.1988</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">E6*J6/100</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>91.76</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>88.24</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <f aca="false">O6*G6/100</f>
+        <v>31.1984</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <f aca="false">P6*H6/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <f aca="false">Q6*I6/100</f>
+        <v>30.0016</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <f aca="false">R6*J6/100</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <f aca="false">T6-K6</f>
+        <v>-1.60139999999999</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <f aca="false">U6-L6</f>
+        <v>-0.8</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <f aca="false">V6-M6</f>
+        <v>-0.197199999999995</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <f aca="false">W6-N6</f>
+        <v>-2</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <f aca="false">AVERAGE(X6:AA6)</f>
+        <v>-1.14965</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>89.44</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>74.29</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">B7*G7/100</f>
+        <v>32.1984</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">C7*H7/100</f>
+        <v>5.2003</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">D7*I7/100</f>
+        <v>24.0012</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">E7*J7/100</f>
+        <v>1.6002</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>98.33</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <f aca="false">O7*G7/100</f>
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <f aca="false">P7*H7/100</f>
+        <v>7</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">Q7*I7/100</f>
+        <v>35.3988</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <f aca="false">R7*J7/100</f>
+        <v>7</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <f aca="false">T7-K7</f>
+        <v>3.8016</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <f aca="false">U7-L7</f>
+        <v>1.7997</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <f aca="false">V7-M7</f>
+        <v>11.3976</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <f aca="false">W7-N7</f>
+        <v>5.3998</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <f aca="false">AVERAGE(X7:AA7)</f>
+        <v>5.599675</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">B8*G8/100</f>
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">C8*H8/100</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">D8*I8/100</f>
+        <v>11.2</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">E8*J8/100</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">O8*G8/100</f>
+        <v>25</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <f aca="false">P8*H8/100</f>
+        <v>5</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <f aca="false">Q8*I8/100</f>
+        <v>23.8</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <f aca="false">R8*J8/100</f>
+        <v>4.8</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <f aca="false">T8-K8</f>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <f aca="false">U8-L8</f>
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <f aca="false">V8-M8</f>
+        <v>12.6</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <f aca="false">W8-N8</f>
+        <v>2.8</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <f aca="false">AVERAGE(X8:AA8)</f>
+        <v>6.35</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">B9*G9/100</f>
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">C9*H9/100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">D9*I9/100</f>
+        <v>24.201</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">E9*J9/100</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>99.33</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>99.33</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>89.67</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <f aca="false">O9*G9/100</f>
+        <v>29.799</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <f aca="false">P9*H9/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <f aca="false">Q9*I9/100</f>
+        <v>29.799</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <f aca="false">R9*J9/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <f aca="false">T9-K9</f>
+        <v>2.799</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <f aca="false">U9-L9</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <f aca="false">V9-M9</f>
+        <v>5.598</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <f aca="false">W9-N9</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <f aca="false">AVERAGE(X9:AA9)</f>
+        <v>2.49925</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>73.68</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">B10*G10/100</f>
+        <v>15.6009</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">C10*H10/100</f>
+        <v>3.6001</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">D10*I10/100</f>
+        <v>13.9992</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">E10*J10/100</f>
+        <v>1.9999</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>71.43</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>82.41</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <f aca="false">O10*G10/100</f>
+        <v>17.4002</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <f aca="false">P10*H10/100</f>
+        <v>5.3998</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <f aca="false">Q10*I10/100</f>
+        <v>16.9993</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <f aca="false">R10*J10/100</f>
+        <v>5.0001</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <f aca="false">T10-K10</f>
+        <v>1.7993</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <f aca="false">U10-L10</f>
+        <v>1.7997</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <f aca="false">V10-M10</f>
+        <v>3.0001</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <f aca="false">W10-N10</f>
+        <v>3.0002</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <f aca="false">AVERAGE(X10:AA10)</f>
+        <v>2.399825</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">B11*G11/100</f>
+        <v>12.1995</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">C11*H11/100</f>
+        <v>7.2</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">D11*I11/100</f>
+        <v>7.6005</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">E11*J11/100</f>
+        <v>4.6</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <f aca="false">O11*G11/100</f>
+        <v>7.3995</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <f aca="false">P11*H11/100</f>
+        <v>3.6</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <f aca="false">Q11*I11/100</f>
+        <v>5.5995</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <f aca="false">R11*J11/100</f>
+        <v>2.6</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <f aca="false">T11-K11</f>
+        <v>-4.8</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <f aca="false">U11-L11</f>
+        <v>-3.6</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <f aca="false">V11-M11</f>
+        <v>-2.001</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <f aca="false">W11-N11</f>
+        <v>-2</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <f aca="false">AVERAGE(X11:AA11)</f>
+        <v>-3.10025</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">B12*G12/100</f>
+        <v>4.9995</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">C12*H12/100</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">D12*I12/100</f>
+        <v>0.5995</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">E12*J12/100</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <f aca="false">O12*G12/100</f>
+        <v>11</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <f aca="false">P12*H12/100</f>
+        <v>4</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <f aca="false">Q12*I12/100</f>
+        <v>11</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <f aca="false">R12*J12/100</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <f aca="false">T12-K12</f>
+        <v>6.0005</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <f aca="false">U12-L12</f>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <f aca="false">V12-M12</f>
+        <v>10.4005</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <f aca="false">W12-N12</f>
+        <v>4</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <f aca="false">AVERAGE(X12:AA12)</f>
+        <v>5.60025</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>64.29</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">B13*G13/100</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f aca="false">C13*H13/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">D13*I13/100</f>
+        <v>1.9999</v>
+      </c>
+      <c r="N13" s="1" t="e">
+        <f aca="false">E13*J13/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="n">
+        <f aca="false">O13*G13/100</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="1" t="e">
+        <f aca="false">P13*H13/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <f aca="false">Q13*I13/100</f>
+        <v>7</v>
+      </c>
+      <c r="W13" s="1" t="e">
+        <f aca="false">R13*J13/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <f aca="false">T13-K13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="e">
+        <f aca="false">U13-L13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <f aca="false">V13-M13</f>
+        <v>5.0001</v>
+      </c>
+      <c r="AA13" s="1" t="e">
+        <f aca="false">W13-N13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB13" s="1" t="e">
+        <f aca="false">AVERAGE(X13:AA13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <f aca="false">B14*G14/100</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">C14*H14/100</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">D14*I14/100</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <f aca="false">E14*J14/100</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <f aca="false">O14*G14/100</f>
+        <v>2.0001</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <f aca="false">P14*H14/100</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <f aca="false">Q14*I14/100</f>
+        <v>2.0001</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <f aca="false">R14*J14/100</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <f aca="false">T14-K14</f>
+        <v>2.0001</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <f aca="false">U14-L14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <f aca="false">V14-M14</f>
+        <v>2.0001</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <f aca="false">W14-N14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <f aca="false">AVERAGE(X14:AA14)</f>
+        <v>1.00005</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>81.67</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <f aca="false">B15*G15/100</f>
+        <v>5.8002</v>
+      </c>
+      <c r="L15" s="1" t="e">
+        <f aca="false">C15*H15/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">D15*I15/100</f>
+        <v>4.0002</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f aca="false">E15*J15/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="n">
+        <f aca="false">O15*G15/100</f>
+        <v>6</v>
+      </c>
+      <c r="U15" s="1" t="e">
+        <f aca="false">P15*H15/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <f aca="false">Q15*I15/100</f>
+        <v>6</v>
+      </c>
+      <c r="W15" s="1" t="e">
+        <f aca="false">R15*J15/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <f aca="false">T15-K15</f>
+        <v>0.1998</v>
+      </c>
+      <c r="Y15" s="1" t="e">
+        <f aca="false">U15-L15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <f aca="false">V15-M15</f>
+        <v>1.9998</v>
+      </c>
+      <c r="AA15" s="1" t="e">
+        <f aca="false">W15-N15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" s="1" t="e">
+        <f aca="false">AVERAGE(X15:AA15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <f aca="false">B16*G16/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">C16*H16/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">D16*I16/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">E16*J16/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <f aca="false">O16*G16/100</f>
+        <v>4</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <f aca="false">P16*H16/100</f>
+        <v>4</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <f aca="false">Q16*I16/100</f>
+        <v>4</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <f aca="false">R16*J16/100</f>
+        <v>4</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <f aca="false">T16-K16</f>
+        <v>2.4</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <f aca="false">U16-L16</f>
+        <v>2.4</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <f aca="false">V16-M16</f>
+        <v>2.4</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <f aca="false">W16-N16</f>
+        <v>2.4</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <f aca="false">AVERAGE(X16:AA16)</f>
+        <v>2.4</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <f aca="false">B17*G17/100</f>
+        <v>8.8</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">C17*H17/100</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">D17*I17/100</f>
+        <v>3.9996</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">E17*J17/100</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <f aca="false">O17*G17/100</f>
+        <v>11</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <f aca="false">P17*H17/100</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <f aca="false">Q17*I17/100</f>
+        <v>11</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <f aca="false">R17*J17/100</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <f aca="false">T17-K17</f>
+        <v>2.2</v>
+      </c>
+      <c r="Y17" s="1" t="n">
+        <f aca="false">U17-L17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <f aca="false">V17-M17</f>
+        <v>7.0004</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <f aca="false">W17-N17</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <f aca="false">AVERAGE(X17:AA17)</f>
+        <v>2.5501</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f aca="false">B18*G18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" s="1" t="e">
+        <f aca="false">C18*H18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f aca="false">D18*I18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f aca="false">E18*J18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="e">
+        <f aca="false">O18*G18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="1" t="e">
+        <f aca="false">P18*H18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" s="1" t="e">
+        <f aca="false">Q18*I18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W18" s="1" t="e">
+        <f aca="false">R18*J18/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X18" s="1" t="e">
+        <f aca="false">T18-K18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y18" s="1" t="e">
+        <f aca="false">U18-L18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="1" t="e">
+        <f aca="false">V18-M18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA18" s="1" t="e">
+        <f aca="false">W18-N18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB18" s="1" t="e">
+        <f aca="false">AVERAGE(X18:AA18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">B19*G19/100</f>
+        <v>2.8</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">C19*H19/100</f>
+        <v>2.0001</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">D19*I19/100</f>
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">E19*J19/100</f>
+        <v>2.0001</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <f aca="false">O19*G19/100</f>
+        <v>4</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <f aca="false">P19*H19/100</f>
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <f aca="false">Q19*I19/100</f>
+        <v>3.2</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <f aca="false">R19*J19/100</f>
+        <v>2.1999</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <f aca="false">T19-K19</f>
+        <v>1.2</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <f aca="false">U19-L19</f>
+        <v>0.9999</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <f aca="false">V19-M19</f>
+        <v>1.2</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <f aca="false">W19-N19</f>
+        <v>0.1998</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <f aca="false">AVERAGE(X19:AA19)</f>
+        <v>0.899925</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <f aca="false">B20*G20/100</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f aca="false">C20*H20/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">D20*I20/100</f>
+        <v>2</v>
+      </c>
+      <c r="N20" s="1" t="e">
+        <f aca="false">E20*J20/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="n">
+        <f aca="false">O20*G20/100</f>
+        <v>2</v>
+      </c>
+      <c r="U20" s="1" t="e">
+        <f aca="false">P20*H20/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <f aca="false">Q20*I20/100</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="1" t="e">
+        <f aca="false">R20*J20/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <f aca="false">T20-K20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="e">
+        <f aca="false">U20-L20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <f aca="false">V20-M20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="e">
+        <f aca="false">W20-N20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB20" s="1" t="e">
+        <f aca="false">AVERAGE(X20:AA20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">B21*G21/100</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">C21*H21/100</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">D21*I21/100</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">E21*J21/100</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <f aca="false">O21*G21/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <f aca="false">P21*H21/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <f aca="false">Q21*I21/100</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <f aca="false">R21*J21/100</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <f aca="false">T21-K21</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <f aca="false">U21-L21</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <f aca="false">V21-M21</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <f aca="false">W21-N21</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <f aca="false">AVERAGE(X21:AA21)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <f aca="false">B22*G22/100</f>
+        <v>3.1998</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">C22*H22/100</f>
+        <v>0.2001</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">D22*I22/100</f>
+        <v>1.9998</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">E22*J22/100</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <f aca="false">O22*G22/100</f>
+        <v>5.2002</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <f aca="false">P22*H22/100</f>
+        <v>2.1999</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <f aca="false">Q22*I22/100</f>
+        <v>5.2002</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <f aca="false">R22*J22/100</f>
+        <v>2.1999</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <f aca="false">T22-K22</f>
+        <v>2.0004</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <f aca="false">U22-L22</f>
+        <v>1.9998</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <f aca="false">V22-M22</f>
+        <v>3.2004</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <f aca="false">W22-N22</f>
+        <v>2.1999</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <f aca="false">AVERAGE(X22:AA22)</f>
+        <v>2.350125</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="e">
+        <f aca="false">B23*G23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" s="1" t="e">
+        <f aca="false">C23*H23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="1" t="e">
+        <f aca="false">D23*I23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" s="1" t="e">
+        <f aca="false">E23*J23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="e">
+        <f aca="false">O23*G23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" s="1" t="e">
+        <f aca="false">P23*H23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" s="1" t="e">
+        <f aca="false">Q23*I23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W23" s="1" t="e">
+        <f aca="false">R23*J23/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X23" s="1" t="e">
+        <f aca="false">T23-K23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y23" s="1" t="e">
+        <f aca="false">U23-L23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z23" s="1" t="e">
+        <f aca="false">V23-M23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA23" s="1" t="e">
+        <f aca="false">W23-N23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB23" s="1" t="e">
+        <f aca="false">AVERAGE(X23:AA23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>74.29</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <f aca="false">B24*G24/100</f>
+        <v>5.2003</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">C24*H24/100</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">D24*I24/100</f>
+        <v>1.0003</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">E24*J24/100</f>
+        <v>0.9999</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <f aca="false">O24*G24/100</f>
+        <v>2.4003</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <f aca="false">P24*H24/100</f>
+        <v>0.8001</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <f aca="false">Q24*I24/100</f>
+        <v>1.1998</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <f aca="false">R24*J24/100</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <f aca="false">T24-K24</f>
+        <v>-2.8</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <f aca="false">U24-L24</f>
+        <v>-2.1999</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <f aca="false">V24-M24</f>
+        <v>0.1995</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <f aca="false">W24-N24</f>
+        <v>-0.9999</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <f aca="false">AVERAGE(X24:AA24)</f>
+        <v>-1.450075</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <f aca="false">B25*G25/100</f>
+        <v>0.2001</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">C25*H25/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">D25*I25/100</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">E25*J25/100</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <f aca="false">O25*G25/100</f>
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <f aca="false">P25*H25/100</f>
+        <v>2</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <f aca="false">Q25*I25/100</f>
+        <v>2.6001</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <f aca="false">R25*J25/100</f>
+        <v>2</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <f aca="false">T25-K25</f>
+        <v>2.7999</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <f aca="false">U25-L25</f>
+        <v>1.8</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <f aca="false">V25-M25</f>
+        <v>2.6001</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <f aca="false">W25-N25</f>
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <f aca="false">AVERAGE(X25:AA25)</f>
+        <v>2.3</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <f aca="false">B26*G26/100</f>
+        <v>2.1999</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">C26*H26/100</f>
+        <v>2.1999</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">D26*I26/100</f>
+        <v>0.8001</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">E26*J26/100</f>
+        <v>0.8001</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <f aca="false">O26*G26/100</f>
+        <v>2.4</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <f aca="false">P26*H26/100</f>
+        <v>2.4</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <f aca="false">Q26*I26/100</f>
+        <v>0.8001</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <f aca="false">R26*J26/100</f>
+        <v>0.8001</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <f aca="false">T26-K26</f>
+        <v>0.2001</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <f aca="false">U26-L26</f>
+        <v>0.2001</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <f aca="false">V26-M26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <f aca="false">W26-N26</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <f aca="false">AVERAGE(X26:AA26)</f>
+        <v>0.10005</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="e">
+        <f aca="false">B27*G27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f aca="false">C27*H27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="1" t="e">
+        <f aca="false">D27*I27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" s="1" t="e">
+        <f aca="false">E27*J27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="e">
+        <f aca="false">O27*G27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="1" t="e">
+        <f aca="false">P27*H27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="1" t="e">
+        <f aca="false">Q27*I27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" s="1" t="e">
+        <f aca="false">R27*J27/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" s="1" t="e">
+        <f aca="false">T27-K27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="1" t="e">
+        <f aca="false">U27-L27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="1" t="e">
+        <f aca="false">V27-M27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="1" t="e">
+        <f aca="false">W27-N27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27" s="1" t="e">
+        <f aca="false">AVERAGE(X27:AA27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="e">
+        <f aca="false">B28*G28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f aca="false">C28*H28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="1" t="e">
+        <f aca="false">D28*I28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" s="1" t="e">
+        <f aca="false">E28*J28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="e">
+        <f aca="false">O28*G28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="1" t="e">
+        <f aca="false">P28*H28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" s="1" t="e">
+        <f aca="false">Q28*I28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" s="1" t="e">
+        <f aca="false">R28*J28/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" s="1" t="e">
+        <f aca="false">T28-K28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="1" t="e">
+        <f aca="false">U28-L28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="1" t="e">
+        <f aca="false">V28-M28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA28" s="1" t="e">
+        <f aca="false">W28-N28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB28" s="1" t="e">
+        <f aca="false">AVERAGE(X28:AA28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <f aca="false">B29*G29/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">C29*H29/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">D29*I29/100</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <f aca="false">E29*J29/100</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <f aca="false">O29*G29/100</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <f aca="false">P29*H29/100</f>
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <f aca="false">Q29*I29/100</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <f aca="false">R29*J29/100</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <f aca="false">T29-K29</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <f aca="false">U29-L29</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <f aca="false">V29-M29</f>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1" t="n">
+        <f aca="false">W29-N29</f>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <f aca="false">AVERAGE(X29:AA29)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <f aca="false">B30*G30/100</f>
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="e">
+        <f aca="false">C30*H30/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">D30*I30/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="N30" s="1" t="e">
+        <f aca="false">E30*J30/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="n">
+        <f aca="false">O30*G30/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="U30" s="1" t="e">
+        <f aca="false">P30*H30/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <f aca="false">Q30*I30/100</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="e">
+        <f aca="false">R30*J30/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <f aca="false">T30-K30</f>
+        <v>-1.6</v>
+      </c>
+      <c r="Y30" s="1" t="e">
+        <f aca="false">U30-L30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <f aca="false">V30-M30</f>
+        <v>-0.6</v>
+      </c>
+      <c r="AA30" s="1" t="e">
+        <f aca="false">W30-N30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB30" s="1" t="e">
+        <f aca="false">AVERAGE(X30:AA30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="n">
+        <f aca="false">SUMIF(B3:B30,"&lt;&gt;#VALUE!")</f>
+        <v>1772.29</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <f aca="false">SUMIF(C3:C30,"&lt;&gt;#VALUE!")</f>
+        <v>1116.79</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">SUMIF(D3:D30,"&lt;&gt;#VALUE!")</f>
+        <v>1113.87</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">SUMIF(E3:E30,"&lt;&gt;#VALUE!")</f>
+        <v>626.82</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">SUMIF(F3:F30,"&lt;&gt;#VALUE!")</f>
+        <v>1312.92</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <f aca="false">SUMIF(G3:G30,"&lt;&gt;#VALUE!")</f>
+        <v>1460</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">SUMIF(H3:H30,"&lt;&gt;#VALUE!")</f>
+        <v>75</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">SUMIF(I3:I30,"&lt;&gt;#VALUE!")</f>
+        <v>1460</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <f aca="false">SUMIF(J3:J30,"&lt;&gt;#VALUE!")</f>
+        <v>75</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <f aca="false">SUMIF(K3:K30,"&lt;&gt;#VALUE!")</f>
+        <v>1404.7943</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <f aca="false">SUMIF(L3:L30,"&lt;&gt;#VALUE!")</f>
+        <v>47.8009</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">SUMIF(M3:M30,"&lt;&gt;#VALUE!")</f>
+        <v>1336.795</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <f aca="false">SUMIF(N3:N30,"&lt;&gt;#VALUE!")</f>
+        <v>27.0008</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <f aca="false">SUMIF(O3:O30,"&lt;&gt;#VALUE!")</f>
+        <v>2077.97</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <f aca="false">SUMIF(P3:P30,"&lt;&gt;#VALUE!")</f>
+        <v>1548.81</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <f aca="false">SUMIF(Q3:Q30,"&lt;&gt;#VALUE!")</f>
+        <v>1912.09</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <f aca="false">SUMIF(R3:R30,"&lt;&gt;#VALUE!")</f>
+        <v>1284.77</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <f aca="false">SUMIF(S3:S30,"&lt;&gt;#VALUE!")</f>
+        <v>1550.91</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <f aca="false">SUMIF(T3:T30,"&lt;&gt;#VALUE!")</f>
+        <v>1436.9942</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <f aca="false">SUMIF(U3:U30,"&lt;&gt;#VALUE!")</f>
+        <v>62.1999</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <f aca="false">SUMIF(V3:V30,"&lt;&gt;#VALUE!")</f>
+        <v>1420.5966</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <f aca="false">SUMIF(W3:W30,"&lt;&gt;#VALUE!")</f>
+        <v>54.1997</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <f aca="false">SUMIF(X3:X30,"&lt;&gt;#VALUE!")</f>
+        <v>32.1999</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <f aca="false">SUMIF(Y3:Y30,"&lt;&gt;#VALUE!")</f>
+        <v>14.399</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <f aca="false">SUMIF(Z3:Z30,"&lt;&gt;#VALUE!")</f>
+        <v>83.8016</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <f aca="false">SUMIF(AA3:AA30,"&lt;&gt;#VALUE!")</f>
+        <v>27.1989</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <f aca="false">SUMIF(AB3:AB30,"&lt;&gt;#VALUE!")</f>
+        <v>38.149925</v>
+      </c>
+      <c r="AC31" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="X3:AB30">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="9.14"/>
   </cols>
